--- a/doc/worklog.xlsx
+++ b/doc/worklog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>序号</t>
   </si>
@@ -262,10 +262,16 @@
     <t xml:space="preserve">worklog </t>
   </si>
   <si>
-    <t>2016 / 07 / 16 23:42</t>
-  </si>
-  <si>
     <t>除信息发送框，因为下面处理中有些函数要调用信息发送框中内容，因此放在处理函数之后再清除</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> worklog</t>
+  </si>
+  <si>
+    <t>建一个绿色的tag</t>
+  </si>
+  <si>
+    <t>2016 / 07 / 17 00:08</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,8 +2234,8 @@
       <c r="D33" t="s">
         <v>29</v>
       </c>
-      <c r="E33" t="s">
-        <v>82</v>
+      <c r="E33" s="2" t="n">
+        <v>42567.9875</v>
       </c>
       <c r="F33" t="n">
         <v>5</v>
@@ -2238,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s"/>
       <c r="J33" t="s">
@@ -2260,6 +2266,186 @@
       <c r="X33" t="s"/>
       <c r="Y33" t="s"/>
     </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>42568.00277777778</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="s"/>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="s"/>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>42568.00416666667</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="s"/>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="s"/>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>42568.00555555556</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="s"/>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="s"/>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="s"/>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
